--- a/MAIN-ASSIGNMENT/User.xlsx
+++ b/MAIN-ASSIGNMENT/User.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2830" yWindow="4020" windowWidth="14400" windowHeight="7360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -390,9 +391,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -448,6 +449,104 @@
         <v>21</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>kumar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kumar</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>kumar</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1234567</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tharun12</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>thatun12</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>tharun12</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1234456</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>tharun@gmail.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RRR</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
